--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -485,10 +485,10 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="1" sqref="A19 A24"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2746,11 +2746,11 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A19 A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2906,7 +2906,7 @@
         <v>35880</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>357290</v>
+        <v>35729</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>39389</v>
@@ -5086,10 +5086,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="1" sqref="A19 A30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8403,11 +8403,11 @@
   </sheetPr>
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="1" sqref="A19 D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11651,11 +11651,11 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
